--- a/CustomerData.xlsx
+++ b/CustomerData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felmeawad\Desktop\For validation\Feb 21\Feb 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rahul\Study_Materials\PA\ML_exercies\Assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC13E72F-4C62-411C-A917-C8B422387E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC00ACD5-D23F-4470-9A03-C41BD13FA8EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:V989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
